--- a/GATEWAY/SIG120200_00987654321-AppTest01/HS INFORMATICA/HS LABO/1.0/report-checklist.xlsx
+++ b/GATEWAY/SIG120200_00987654321-AppTest01/HS INFORMATICA/HS LABO/1.0/report-checklist.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirko\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\.shortcut-targets-by-id\1ZU4FFR1uOGHfkS8e0AcW-3pBCS_XJ31_\dati_accreditamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17895" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="214">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -804,13 +804,10 @@
     <t>Il medico potrà in ogni caso produrre il documento ma riceverà un warning mentre la problematica viene segnalata al BackOffice</t>
   </si>
   <si>
-    <t>Invio bloccato con conseguente warning all'utente per reimpostare correttamente l'attributo e poi tentare un nuovo invio</t>
-  </si>
-  <si>
-    <t>Invio bloccato con conseguente warning all'utente per reimpostare correttamente i dati e poi tentare un nuovo invio</t>
-  </si>
-  <si>
     <t>Errore  Applicativo</t>
+  </si>
+  <si>
+    <t>Invio bloccato con conseguente warning all'utente (medico) per reimpostare correttamente l'attributo e poi tentare un nuovo invio</t>
   </si>
 </sst>
 </file>
@@ -1444,6 +1441,20 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1462,20 +1473,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -3862,7 +3859,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="L16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="O25" sqref="O25"/>
+      <selection pane="bottomRight" activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3906,14 +3903,14 @@
       <c r="T1" s="16"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="75"/>
+      <c r="D2" s="81"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -3931,14 +3928,14 @@
       <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="83" t="s">
+      <c r="B3" s="84"/>
+      <c r="C3" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="75"/>
+      <c r="D3" s="81"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -3956,12 +3953,12 @@
       <c r="T3" s="16"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="83" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="1"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -3980,12 +3977,12 @@
       <c r="T4" s="16"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="81"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="83" t="s">
+      <c r="A5" s="87"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="75"/>
+      <c r="D5" s="81"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -4003,8 +4000,8 @@
       <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="84"/>
-      <c r="B6" s="85"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="F6" s="13"/>
@@ -4440,7 +4437,7 @@
       <c r="D16" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="86" t="s">
+      <c r="E16" s="74" t="s">
         <v>83</v>
       </c>
       <c r="F16" s="51">
@@ -4463,13 +4460,13 @@
       <c r="M16" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="N16" s="89" t="s">
-        <v>214</v>
+      <c r="N16" s="77" t="s">
+        <v>212</v>
       </c>
       <c r="O16" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="P16" s="87" t="s">
+      <c r="P16" s="75" t="s">
         <v>211</v>
       </c>
       <c r="Q16" s="52"/>
@@ -4498,7 +4495,7 @@
       <c r="D17" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="86" t="s">
+      <c r="E17" s="74" t="s">
         <v>88</v>
       </c>
       <c r="F17" s="51">
@@ -4521,13 +4518,13 @@
       <c r="M17" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="N17" s="89" t="s">
-        <v>214</v>
+      <c r="N17" s="77" t="s">
+        <v>212</v>
       </c>
       <c r="O17" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="P17" s="88" t="s">
+      <c r="P17" s="76" t="s">
         <v>211</v>
       </c>
       <c r="Q17" s="52"/>
@@ -4573,13 +4570,13 @@
       <c r="M18" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="N18" s="89" t="s">
-        <v>214</v>
+      <c r="N18" s="77" t="s">
+        <v>212</v>
       </c>
       <c r="O18" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="88" t="s">
+      <c r="P18" s="76" t="s">
         <v>210</v>
       </c>
       <c r="Q18" s="52"/>
@@ -4633,14 +4630,14 @@
       <c r="M19" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="N19" s="89" t="s">
-        <v>214</v>
+      <c r="N19" s="77" t="s">
+        <v>212</v>
       </c>
       <c r="O19" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="P19" s="88" t="s">
-        <v>212</v>
+      <c r="P19" s="76" t="s">
+        <v>213</v>
       </c>
       <c r="Q19" s="52"/>
       <c r="R19" s="53"/>
@@ -4693,13 +4690,13 @@
       <c r="M20" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="N20" s="89" t="s">
-        <v>214</v>
+      <c r="N20" s="77" t="s">
+        <v>212</v>
       </c>
       <c r="O20" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="P20" s="88" t="s">
+      <c r="P20" s="76" t="s">
         <v>213</v>
       </c>
       <c r="Q20" s="52"/>
@@ -4753,14 +4750,14 @@
       <c r="M21" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="N21" s="89" t="s">
-        <v>214</v>
+      <c r="N21" s="77" t="s">
+        <v>212</v>
       </c>
       <c r="O21" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="P21" s="88" t="s">
-        <v>212</v>
+      <c r="P21" s="76" t="s">
+        <v>213</v>
       </c>
       <c r="Q21" s="52"/>
       <c r="R21" s="53"/>
@@ -4813,13 +4810,13 @@
       <c r="M22" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="N22" s="89" t="s">
-        <v>214</v>
+      <c r="N22" s="77" t="s">
+        <v>212</v>
       </c>
       <c r="O22" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="P22" s="88" t="s">
+      <c r="P22" s="76" t="s">
         <v>213</v>
       </c>
       <c r="Q22" s="52"/>
@@ -4873,13 +4870,13 @@
       <c r="M23" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="N23" s="89" t="s">
-        <v>214</v>
+      <c r="N23" s="77" t="s">
+        <v>212</v>
       </c>
       <c r="O23" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="P23" s="88" t="s">
+      <c r="P23" s="76" t="s">
         <v>213</v>
       </c>
       <c r="Q23" s="52"/>
@@ -4933,13 +4930,13 @@
       <c r="M24" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="N24" s="89" t="s">
-        <v>214</v>
+      <c r="N24" s="77" t="s">
+        <v>212</v>
       </c>
       <c r="O24" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="P24" s="88" t="s">
+      <c r="P24" s="76" t="s">
         <v>213</v>
       </c>
       <c r="Q24" s="52"/>
@@ -4993,13 +4990,13 @@
       <c r="M25" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="N25" s="89" t="s">
-        <v>214</v>
+      <c r="N25" s="77" t="s">
+        <v>212</v>
       </c>
       <c r="O25" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="P25" s="88" t="s">
+      <c r="P25" s="76" t="s">
         <v>213</v>
       </c>
       <c r="Q25" s="52"/>
@@ -5053,13 +5050,13 @@
       <c r="M26" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="N26" s="89" t="s">
-        <v>214</v>
+      <c r="N26" s="77" t="s">
+        <v>212</v>
       </c>
       <c r="O26" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="P26" s="88" t="s">
+      <c r="P26" s="76" t="s">
         <v>213</v>
       </c>
       <c r="Q26" s="52"/>
@@ -5113,13 +5110,13 @@
       <c r="M27" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="N27" s="89" t="s">
-        <v>214</v>
+      <c r="N27" s="77" t="s">
+        <v>212</v>
       </c>
       <c r="O27" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="P27" s="88" t="s">
+      <c r="P27" s="76" t="s">
         <v>213</v>
       </c>
       <c r="Q27" s="52"/>
@@ -5173,13 +5170,13 @@
       <c r="M28" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="N28" s="89" t="s">
-        <v>214</v>
+      <c r="N28" s="77" t="s">
+        <v>212</v>
       </c>
       <c r="O28" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="P28" s="88" t="s">
+      <c r="P28" s="76" t="s">
         <v>213</v>
       </c>
       <c r="Q28" s="52"/>
@@ -5233,13 +5230,13 @@
       <c r="M29" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="N29" s="89" t="s">
-        <v>214</v>
+      <c r="N29" s="77" t="s">
+        <v>212</v>
       </c>
       <c r="O29" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="P29" s="88" t="s">
+      <c r="P29" s="76" t="s">
         <v>213</v>
       </c>
       <c r="Q29" s="52"/>
